--- a/USA Steady area FAOSTAT.xlsx
+++ b/USA Steady area FAOSTAT.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="218">
   <si>
     <t>India</t>
   </si>
@@ -562,9 +562,6 @@
     <t>% of Total Livestock (%)</t>
   </si>
   <si>
-    <t>Percentage of livestock type 2011</t>
-  </si>
-  <si>
     <t>Livestock per/ha after livestock type</t>
   </si>
   <si>
@@ -737,14 +734,24 @@
   </si>
   <si>
     <t>Converted from acres to hectares by factoring with 0,4</t>
+  </si>
+  <si>
+    <t>Livestock inventory USA 2012</t>
+  </si>
+  <si>
+    <t>Percentage of livestock type 2012</t>
+  </si>
+  <si>
+    <t>Food Security USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _D_K_K_-;\-* #,##0.00\ _D_K_K_-;_-* &quot;-&quot;??\ _D_K_K_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _D_K_K_-;\-* #,##0\ _D_K_K_-;_-* &quot;-&quot;??\ _D_K_K_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1069,7 +1076,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,9 +1140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1184,6 +1188,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,18 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1593,119 +1600,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68" t="s">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="69">
+      <c r="A2" s="77">
         <v>2010</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="70">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="78">
         <f>1205625*1000</f>
         <v>1205625000</v>
       </c>
-      <c r="Q3" s="70"/>
+      <c r="Q3" s="78"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="68"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="2" t="s">
         <v>136</v>
       </c>
@@ -1715,7 +1722,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="2" t="s">
         <v>137</v>
       </c>
@@ -6789,17 +6796,17 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="25" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="7" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="10" max="10" width="33.83203125" bestFit="1" customWidth="1"/>
@@ -6809,32 +6816,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="25" customFormat="1" ht="30">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="59" t="s">
+      <c r="C1" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>208</v>
+      <c r="I1" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="J1"/>
       <c r="K1"/>
@@ -6848,8 +6855,8 @@
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="61" t="s">
-        <v>189</v>
+      <c r="A2" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="29">
         <v>318900000</v>
@@ -6861,27 +6868,28 @@
         <f>E2*C2</f>
         <v>734400000</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>136000000</v>
       </c>
       <c r="F2" s="30">
-        <f>$C$38/$B$23</f>
+        <f t="shared" ref="F2:F7" si="0">$C$37/$B$22</f>
         <v>1.4426752569584207</v>
       </c>
       <c r="G2" s="30">
-        <f t="shared" ref="G2:G7" si="0">H2*F2</f>
+        <f t="shared" ref="G2:G7" si="1">H2*F2</f>
         <v>765611639.2224108</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="51">
         <v>530688826.56</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="61">
         <f>D2+G2-B2</f>
         <v>1181111639.2224107</v>
       </c>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="61">
+      <c r="A3" s="60">
         <v>2014</v>
       </c>
       <c r="B3" s="29">
@@ -6891,30 +6899,30 @@
         <v>5.4</v>
       </c>
       <c r="D3" s="30">
-        <f t="shared" ref="D3:D7" si="1">E3*C3</f>
+        <f t="shared" ref="D3:D7" si="2">E3*C3</f>
         <v>734400000</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <v>136000000</v>
       </c>
       <c r="F3" s="30">
-        <f>$C$38/$B$23</f>
+        <f t="shared" si="0"/>
         <v>1.4426752569584207</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765611639.2224108</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="51">
         <v>530688826.56</v>
       </c>
-      <c r="I3" s="62">
-        <f t="shared" ref="I3:I7" si="2">D3+G3-B3</f>
+      <c r="I3" s="61">
+        <f t="shared" ref="I3:I7" si="3">D3+G3-B3</f>
         <v>1181111639.2224107</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>2015</v>
       </c>
       <c r="B4" s="29">
@@ -6925,30 +6933,31 @@
         <v>5.4</v>
       </c>
       <c r="D4" s="30">
+        <f t="shared" si="2"/>
+        <v>734400000</v>
+      </c>
+      <c r="E4" s="47">
+        <v>136000000</v>
+      </c>
+      <c r="F4" s="30">
+        <f t="shared" si="0"/>
+        <v>1.4426752569584207</v>
+      </c>
+      <c r="G4" s="30">
         <f t="shared" si="1"/>
-        <v>734400000</v>
-      </c>
-      <c r="E4" s="48">
-        <v>136000000</v>
-      </c>
-      <c r="F4" s="30">
-        <f>$C$38/$B$23</f>
-        <v>1.4426752569584207</v>
-      </c>
-      <c r="G4" s="30">
-        <f t="shared" si="0"/>
         <v>765611639.2224108</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <v>530688826.56</v>
       </c>
-      <c r="I4" s="62">
-        <f t="shared" si="2"/>
+      <c r="I4" s="61">
+        <f t="shared" si="3"/>
         <v>1179357689.2224107</v>
       </c>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>2022</v>
       </c>
       <c r="B5" s="29">
@@ -6959,30 +6968,30 @@
         <v>5.4</v>
       </c>
       <c r="D5" s="30">
+        <f t="shared" si="2"/>
+        <v>734400000</v>
+      </c>
+      <c r="E5" s="47">
+        <v>136000000</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>1.4426752569584207</v>
+      </c>
+      <c r="G5" s="30">
         <f t="shared" si="1"/>
-        <v>734400000</v>
-      </c>
-      <c r="E5" s="48">
-        <v>136000000</v>
-      </c>
-      <c r="F5" s="30">
-        <f>$C$38/$B$23</f>
-        <v>1.4426752569584207</v>
-      </c>
-      <c r="G5" s="30">
-        <f t="shared" si="0"/>
         <v>765611639.2224108</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>530688826.56</v>
       </c>
-      <c r="I5" s="62">
-        <f t="shared" si="2"/>
+      <c r="I5" s="61">
+        <f t="shared" si="3"/>
         <v>1166806939.2140441</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="61">
+      <c r="A6" s="60">
         <v>2030</v>
       </c>
       <c r="B6" s="29">
@@ -6993,237 +7002,237 @@
         <v>5.4</v>
       </c>
       <c r="D6" s="30">
+        <f t="shared" si="2"/>
+        <v>734400000</v>
+      </c>
+      <c r="E6" s="47">
+        <v>136000000</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>1.4426752569584207</v>
+      </c>
+      <c r="G6" s="30">
         <f t="shared" si="1"/>
-        <v>734400000</v>
-      </c>
-      <c r="E6" s="48">
-        <v>136000000</v>
-      </c>
-      <c r="F6" s="30">
-        <f>$C$38/$B$23</f>
-        <v>1.4426752569584207</v>
-      </c>
-      <c r="G6" s="30">
-        <f t="shared" si="0"/>
         <v>765611639.2224108</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>530688826.56</v>
       </c>
-      <c r="I6" s="62">
-        <f t="shared" si="2"/>
+      <c r="I6" s="61">
+        <f t="shared" si="3"/>
         <v>1151860582.1271911</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>2050</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <f>$B$3*(1+0.0055)^36</f>
         <v>388516275.58058703</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>5.4</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
+        <f t="shared" si="2"/>
+        <v>734400000</v>
+      </c>
+      <c r="E7" s="52">
+        <v>136000000</v>
+      </c>
+      <c r="F7" s="63">
+        <f t="shared" si="0"/>
+        <v>1.4426752569584207</v>
+      </c>
+      <c r="G7" s="63">
         <f t="shared" si="1"/>
-        <v>734400000</v>
-      </c>
-      <c r="E7" s="53">
-        <v>136000000</v>
-      </c>
-      <c r="F7" s="64">
-        <f>$C$38/$B$23</f>
-        <v>1.4426752569584207</v>
-      </c>
-      <c r="G7" s="64">
-        <f t="shared" si="0"/>
         <v>765611639.2224108</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>530688826.56</v>
       </c>
-      <c r="I7" s="65">
-        <f t="shared" si="2"/>
+      <c r="I7" s="64">
+        <f t="shared" si="3"/>
         <v>1111495363.6418238</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="E8" s="28"/>
+    <row r="8" spans="1:19" ht="30">
+      <c r="A8" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" ht="30">
-      <c r="A10" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="75">
+        <f>(C2*E2+F2*H2)/B2</f>
+        <v>4.7037053597441538</v>
+      </c>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="43">
+        <v>914742000</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="44">
-        <v>914742000</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="19"/>
+    <row r="13" spans="1:19" ht="30">
+      <c r="A13" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="72">
+        <f>B16/B12</f>
+        <v>0.43278739647905196</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:19" ht="30">
-      <c r="A14" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="78">
-        <f>B17/B13</f>
-        <v>0.43278739647905196</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="21"/>
+    <row r="14" spans="1:19">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="10"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="27"/>
-      <c r="C16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="46">
+        <f>B17+B18</f>
+        <v>395888808.63004094</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="47">
-        <f>B18+B19</f>
-        <v>395888808.63004094</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>136000000</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="49">
+        <v>259888808.63004094</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="50">
+        <v>3639</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="48">
-        <v>136000000</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="50">
-        <v>259888808.63004094</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="34" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="51">
+        <v>2514</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="51">
-        <v>3639</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="52">
-        <v>2514</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="B23" s="49">
+        <f>(B21-B22)/B21</f>
+        <v>0.30915086562242372</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="50">
-        <f>(B22-B23)/B22</f>
-        <v>0.30915086562242372</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="B24" s="27"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9">
@@ -7231,375 +7240,377 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="27"/>
+      <c r="A26" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B22-B27</f>
+        <v>2006.4</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="51">
-        <f>B23-B28</f>
-        <v>2006.4</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="53">
+      <c r="B27" s="52">
         <f>507.6</f>
         <v>507.6</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="12"/>
+      <c r="C27" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="26"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="26"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="26"/>
-      <c r="I30" s="11"/>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="53">
+        <f>B34/B22*B33</f>
+        <v>5.799522673031027</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="30">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="55">
+        <f>C37/B22</f>
+        <v>1.4426752569584207</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="54">
-        <f>B35/B23*B34</f>
-        <v>5.799522673031027</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="56">
-        <f>C38/B23</f>
-        <v>1.4426752569584207</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="54">
+      <c r="B33" s="53">
         <v>5.4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="31" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="50">
+    <row r="34" spans="1:9" ht="31" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="49">
         <v>2700</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="34"/>
-      <c r="B37" s="14" t="s">
+      <c r="C34" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="34"/>
+      <c r="B36" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="C36" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="20">
+        <f>1100000/0.4/1000</f>
+        <v>2750</v>
+      </c>
+      <c r="C37" s="66">
+        <f>B37*D53+B38*D54+B39*D55+B40*D56</f>
+        <v>3626.8855959934695</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B38" s="20">
-        <f>1100000/0.4/1000</f>
-        <v>2750</v>
-      </c>
-      <c r="C38" s="67">
-        <f>B38*D54+B39*D55+B40*D56+B41*D57</f>
-        <v>3626.8855959934695</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="20">
         <f>3500000/0.4/1000</f>
         <v>8750</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="20">
+    <row r="39" spans="1:9">
+      <c r="A39" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="20">
         <f>3000000/0.4/1000</f>
         <v>7500</v>
       </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="35" t="s">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B40" s="20">
         <f>1400000/0.4/1000</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60">
-      <c r="A42" s="76" t="s">
+    <row r="41" spans="1:9" ht="60">
+      <c r="A41" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="33"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="34"/>
+      <c r="B43" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="16">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60">
+      <c r="A45" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="33"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="34"/>
-      <c r="B44" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="16">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="35" t="s">
-        <v>176</v>
-      </c>
+      <c r="C45" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="54">
+        <f>B60/$B$18</f>
+        <v>0.34628122108986181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60">
+      <c r="A46" s="35"/>
       <c r="B46" s="22" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="55">
-        <f>B60/$B$19</f>
-        <v>0.34628122108986181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
+      <c r="D46" s="61">
+        <f>B61/$B$18</f>
+        <v>0.25405782322081821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="60">
       <c r="A47" s="35"/>
       <c r="B47" s="22" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="62">
-        <f>B61/$B$19</f>
-        <v>0.25405782322081821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30">
+      <c r="D47" s="61">
+        <f>B62/$B$18</f>
+        <v>2.0642843484795864E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60">
       <c r="A48" s="35"/>
       <c r="B48" s="22" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="62">
-        <f>B62/$B$19</f>
-        <v>2.0642843484795864E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30">
-      <c r="A49" s="35"/>
-      <c r="B49" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="62">
-        <f>B63/$B$19</f>
+      <c r="D48" s="61">
+        <f>B63/$B$18</f>
         <v>8.4948205874564451</v>
       </c>
     </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="36"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="18"/>
+    </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="36"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="C51" s="25"/>
-    </row>
-    <row r="52" spans="1:8" ht="30">
-      <c r="A52" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" ht="30">
+      <c r="A51" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="16">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30">
       <c r="A53" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>145</v>
+        <v>175</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="16">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="35" t="s">
-        <v>176</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D53" s="71">
+        <f>B60/$B$64</f>
+        <v>3.7986915801429995E-2</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+    </row>
+    <row r="54" spans="1:8" ht="30">
+      <c r="A54" s="35"/>
       <c r="B54" s="22" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D54" s="77">
-        <f>B60/$B$64</f>
-        <v>3.7986915801429995E-2</v>
+      <c r="D54" s="71">
+        <f t="shared" ref="D54:D56" si="4">B61/$B$64</f>
+        <v>2.7870044783281374E-2</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="30">
       <c r="A55" s="35"/>
       <c r="B55" s="22" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="77">
-        <f t="shared" ref="D55:D57" si="3">B61/$B$64</f>
-        <v>2.7870044783281374E-2</v>
+      <c r="D55" s="71">
+        <f t="shared" si="4"/>
+        <v>2.2645119330786494E-3</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56" s="35"/>
       <c r="B56" s="22" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="77">
-        <f t="shared" si="3"/>
-        <v>2.2645119330786494E-3</v>
+      <c r="D56" s="71">
+        <f t="shared" si="4"/>
+        <v>0.93187852748221001</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="35"/>
-      <c r="B57" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="77">
-        <f t="shared" si="3"/>
-        <v>0.93187852748221001</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="36"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="30">
+      <c r="A59" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="20">
+        <v>89994614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="37" t="s">
         <v>210</v>
-      </c>
-      <c r="B60" s="19">
-        <v>89994614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="38" t="s">
-        <v>211</v>
       </c>
       <c r="B61" s="20">
         <v>66026785</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="38" t="s">
-        <v>212</v>
+      <c r="A62" s="37" t="s">
+        <v>211</v>
       </c>
       <c r="B62" s="20">
         <v>5364844</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="38" t="s">
-        <v>213</v>
+      <c r="A63" s="37" t="s">
+        <v>212</v>
       </c>
       <c r="B63" s="20">
         <v>2207708802</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="38" t="s">
-        <v>214</v>
+      <c r="A64" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="B64" s="20">
         <f>SUM(B60:B63)</f>
@@ -7607,8 +7618,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="73" t="s">
-        <v>207</v>
+      <c r="A65" s="67" t="s">
+        <v>206</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="13"/>
@@ -7617,8 +7628,8 @@
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="74" t="s">
-        <v>206</v>
+      <c r="A66" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -7628,11 +7639,11 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C34:H34"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1" display="From: http://www.waldeneffect.org/blog/Calories_per_acre_for_various_foods/"/>
+    <hyperlink ref="A41" r:id="rId1" display="From: http://www.waldeneffect.org/blog/Calories_per_acre_for_various_foods/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7676,22 +7687,22 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
         <v>164</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>165</v>
-      </c>
-      <c r="I3" t="s">
-        <v>166</v>
       </c>
       <c r="L3" t="s">
         <v>143</v>
@@ -7781,7 +7792,7 @@
         <v>1700000000</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M8">
         <v>2442</v>
@@ -7789,7 +7800,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="L9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M9">
         <f>M8*M18</f>
@@ -7798,7 +7809,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="L10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M10">
         <f>M8-M9</f>
@@ -7807,7 +7818,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="L16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M16" s="11">
         <f>5.9*2700*365</f>
@@ -7816,7 +7827,7 @@
     </row>
     <row r="18" spans="12:13">
       <c r="L18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M18" s="23">
         <v>0.9</v>
@@ -7824,7 +7835,7 @@
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M19" s="24">
         <f>1-M18</f>
@@ -7833,7 +7844,7 @@
     </row>
     <row r="24" spans="12:13">
       <c r="L24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M24">
         <v>5.9</v>
@@ -7869,12 +7880,12 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="L3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M3">
         <v>44.3</v>
@@ -7882,7 +7893,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="L4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="11">
         <f>983351700</f>
